--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -525,10 +525,10 @@
         <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,129 @@
         <v>55</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kiran</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ece</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>98</v>
+      </c>
+      <c r="I3" t="n">
+        <v>99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>jahnavi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>me</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mani</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cse</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>99</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
